--- a/shadowrun.xlsx
+++ b/shadowrun.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\slemoine\privé perso\PortableGit\lenopgm\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="11_F25DC773A252ABDACC1048ED29DA5AA85ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B50935A-9E42-4E2E-A252-A481B7C9E0BA}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="12240" windowHeight="2980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
-    <sheet name="défauts" sheetId="3" r:id="rId2"/>
-    <sheet name="spells" sheetId="4" r:id="rId3"/>
-    <sheet name="archetypes" sheetId="2" r:id="rId4"/>
+    <sheet name="npcs" sheetId="6" r:id="rId2"/>
+    <sheet name="défauts" sheetId="3" r:id="rId3"/>
+    <sheet name="spells" sheetId="4" r:id="rId4"/>
+    <sheet name="archetypes" sheetId="2" r:id="rId5"/>
+    <sheet name="sc-moments" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="216">
   <si>
     <t>en/fr compatible</t>
   </si>
@@ -415,12 +416,273 @@
   </si>
   <si>
     <t>- Levitation</t>
+  </si>
+  <si>
+    <t>hallucinations traumatiques</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>Croco/Crocodile</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Diva</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>Goliath</t>
+  </si>
+  <si>
+    <t>Cyclop</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Ignus</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>SOS (burnout mage)</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Banshee</t>
+  </si>
+  <si>
+    <t>Colonel</t>
+  </si>
+  <si>
+    <t>Caporal</t>
+  </si>
+  <si>
+    <t>Lieutenant</t>
+  </si>
+  <si>
+    <t>Sensei</t>
+  </si>
+  <si>
+    <t>Tsar</t>
+  </si>
+  <si>
+    <t>Cube</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>Morgue</t>
+  </si>
+  <si>
+    <t>Pharaon</t>
+  </si>
+  <si>
+    <t>Ramses</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Ultra</t>
+  </si>
+  <si>
+    <t>Vulcain</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Hermès</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Magma</t>
+  </si>
+  <si>
+    <t>Lazer</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Nostalgie "Nox"</t>
+  </si>
+  <si>
+    <t>Melancolie "Mel"</t>
+  </si>
+  <si>
+    <t>D-press (burnout mage)</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Jinx</t>
+  </si>
+  <si>
+    <t>Wu(u)</t>
+  </si>
+  <si>
+    <t>Yi(i)</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Ecco</t>
+  </si>
+  <si>
+    <t>Fell</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Torvald</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>militaire</t>
+  </si>
+  <si>
+    <t>Mambo</t>
+  </si>
+  <si>
+    <t>Mamba</t>
+  </si>
+  <si>
+    <t>Ronin</t>
+  </si>
+  <si>
+    <t>le PJ reconnaît/réalise que sa cible est son relative perdu de vue qu'il cherche depuis longtemps</t>
+  </si>
+  <si>
+    <t>la cible snipée par le PJ-sniper regarde droit dans ses yeux à la Johan(Monster)</t>
+  </si>
+  <si>
+    <t>zones:</t>
+  </si>
+  <si>
+    <t>bateau</t>
+  </si>
+  <si>
+    <t>docks (allées de containers, grues, baie, contrôles d'accès…)</t>
+  </si>
+  <si>
+    <t>bibliothèque centrale (étages ouvert/mezzanines, rangées de bibliothèques…)</t>
+  </si>
+  <si>
+    <t>avion transport civil</t>
+  </si>
+  <si>
+    <t>train en marche</t>
+  </si>
+  <si>
+    <t>égyptien</t>
+  </si>
+  <si>
+    <t>grecolatin</t>
+  </si>
+  <si>
+    <t>chinois</t>
+  </si>
+  <si>
+    <t>laché de lampions (s/ place publique, ou dans petites ruelles)</t>
+  </si>
+  <si>
+    <t>shadow-clinic ouverte la nuit squattant des locaux vétérinaires</t>
+  </si>
+  <si>
+    <t>égouts/catacombes</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>Zyklon</t>
+  </si>
+  <si>
+    <t>Cyclone</t>
+  </si>
+  <si>
+    <t>Pyro</t>
+  </si>
+  <si>
+    <t>Nitro</t>
+  </si>
+  <si>
+    <t>dilemne moral tuer/poursuivre le méchant ou sauver les chtit nenfants mis en difficulté (dans un bus en équilibre près d'un ravin, près d'une bombe, ???)</t>
+  </si>
+  <si>
+    <t>Martin Gale</t>
+  </si>
+  <si>
+    <t>Alex Croc</t>
+  </si>
+  <si>
+    <t>Patrice Tounet</t>
+  </si>
+  <si>
+    <t>Roland Culet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -735,20 +997,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I151"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143:C151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -765,650 +1027,650 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
         <v>36</v>
       </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
         <v>43</v>
       </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
         <v>49</v>
       </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
         <v>50</v>
       </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
         <v>55</v>
       </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47">
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C48">
         <v>404</v>
       </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
         <v>57</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
         <v>56</v>
       </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="E49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
         <v>70</v>
       </c>
-      <c r="E50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
         <v>71</v>
       </c>
-      <c r="E51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
         <v>72</v>
       </c>
-      <c r="D52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
         <v>80</v>
       </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
         <v>81</v>
       </c>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
         <v>82</v>
       </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
         <v>83</v>
-      </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>85</v>
       </c>
       <c r="D57" t="s">
         <v>21</v>
@@ -1420,59 +1682,59 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
         <v>88</v>
       </c>
-      <c r="D59" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
         <v>89</v>
       </c>
-      <c r="D60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
         <v>90</v>
       </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>91</v>
-      </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
       </c>
-      <c r="H62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>96</v>
       </c>
@@ -1489,7 +1751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>98</v>
       </c>
@@ -1500,7 +1762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>100</v>
       </c>
@@ -1514,7 +1776,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>102</v>
       </c>
@@ -1525,7 +1787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>103</v>
       </c>
@@ -1536,7 +1798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>106</v>
       </c>
@@ -1550,7 +1812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>107</v>
       </c>
@@ -1564,7 +1826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>108</v>
       </c>
@@ -1575,7 +1837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>109</v>
       </c>
@@ -1586,7 +1848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>110</v>
       </c>
@@ -1595,6 +1857,803 @@
       </c>
       <c r="E72" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>158</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>163</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>175</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>177</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>178</v>
+      </c>
+      <c r="H132" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>179</v>
+      </c>
+      <c r="H133" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>182</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+      <c r="H142" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1604,48 +2663,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53084FD-C73D-44ED-AFDA-DD1308F52B48}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1654,68 +2698,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A449500-B736-4FDC-A4E1-83E596489556}">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1724,19 +2753,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906E1E39-9756-4E91-94D5-94579F9A4EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1744,7 +2843,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1758,7 +2857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1772,7 +2871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1786,7 +2885,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1794,12 +2893,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1813,7 +2912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -1828,4 +2927,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>